--- a/Current_no_acost/estimation_means_and_ginis.xlsx
+++ b/Current_no_acost/estimation_means_and_ginis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="0" windowWidth="15480" windowHeight="16800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22100" windowHeight="16780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>Ginis and Means</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>when beta is 0.985 and sigma is 1</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>Premium</t>
   </si>
 </sst>
 </file>
@@ -96,8 +102,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -113,17 +129,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="21">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -453,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -713,6 +739,34 @@
       </c>
       <c r="F23">
         <v>0.56069999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29">
+        <f>0.607/0.498*100</f>
+        <v>121.88755020080322</v>
+      </c>
+      <c r="D29">
+        <f>0.4226017/0.2755415*100</f>
+        <v>153.37134333666617</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31">
+        <f>1.22*0.607</f>
+        <v>0.74053999999999998</v>
+      </c>
+      <c r="D31">
+        <f>1.1*0.4226017</f>
+        <v>0.46486187000000007</v>
       </c>
     </row>
   </sheetData>
